--- a/examples/databases/dtocean-maintenance/multiplehubs.xlsx
+++ b/examples/databases/dtocean-maintenance/multiplehubs.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="28830" windowHeight="4275" activeTab="2"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="28830" windowHeight="4280" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Components" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="RepairActions" sheetId="4" r:id="rId3"/>
     <sheet name="Inspections" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -184,7 +184,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -285,7 +285,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -293,14 +293,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -338,9 +341,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -375,7 +378,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -410,7 +413,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -593,14 +596,14 @@
       <selection activeCell="K1" sqref="K1:K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="13" width="20.140625" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" customWidth="1"/>
+    <col min="2" max="13" width="20.1796875" customWidth="1"/>
+    <col min="14" max="14" width="18.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -641,7 +644,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -679,7 +682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -717,7 +720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -755,7 +758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -788,18 +791,18 @@
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.7265625" customWidth="1"/>
+    <col min="3" max="3" width="19.7265625" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="12" width="14.5703125" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" customWidth="1"/>
+    <col min="6" max="12" width="14.54296875" customWidth="1"/>
+    <col min="13" max="13" width="16.1796875" customWidth="1"/>
+    <col min="14" max="14" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -840,7 +843,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -881,7 +884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -922,7 +925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -964,13 +967,13 @@
       </c>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="M7" s="4"/>
     </row>
   </sheetData>
@@ -987,19 +990,19 @@
   </sheetPr>
   <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:S4"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:S4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="22" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.54296875" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" customWidth="1"/>
+    <col min="3" max="22" width="11.54296875" customWidth="1"/>
     <col min="23" max="23" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1067,7 +1070,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1102,7 +1105,7 @@
         <v>4</v>
       </c>
       <c r="L2" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M2" s="10">
         <v>6</v>
@@ -1111,10 +1114,10 @@
         <v>15</v>
       </c>
       <c r="O2" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P2" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q2" s="10">
         <v>6</v>
@@ -1123,7 +1126,7 @@
         <v>15</v>
       </c>
       <c r="S2" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T2" s="10" t="s">
         <v>30</v>
@@ -1135,7 +1138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -1170,7 +1173,7 @@
         <v>6</v>
       </c>
       <c r="L3" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M3" s="10">
         <v>6</v>
@@ -1179,10 +1182,10 @@
         <v>15</v>
       </c>
       <c r="O3" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P3" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q3" s="10">
         <v>6</v>
@@ -1191,7 +1194,7 @@
         <v>15</v>
       </c>
       <c r="S3" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T3" s="10" t="s">
         <v>30</v>
@@ -1203,7 +1206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -1238,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="L4" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M4" s="10">
         <v>6</v>
@@ -1247,10 +1250,10 @@
         <v>15</v>
       </c>
       <c r="O4" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P4" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q4" s="10">
         <v>6</v>
@@ -1259,7 +1262,7 @@
         <v>15</v>
       </c>
       <c r="S4" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T4" s="10" t="s">
         <v>30</v>
@@ -1287,21 +1290,21 @@
   </sheetPr>
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="7.26953125" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" customWidth="1"/>
+    <col min="7" max="7" width="6.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1360,7 +1363,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
     </row>
   </sheetData>

--- a/examples/databases/dtocean-maintenance/multiplehubs.xlsx
+++ b/examples/databases/dtocean-maintenance/multiplehubs.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077ECFBF-0C78-4A79-8955-DC2CBDF1B409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="28830" windowHeight="4280" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Components" sheetId="1" r:id="rId1"/>
@@ -12,12 +13,23 @@
     <sheet name="RepairActions" sheetId="4" r:id="rId3"/>
     <sheet name="Inspections" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="55">
   <si>
     <t>False</t>
   </si>
@@ -179,12 +191,15 @@
   </si>
   <si>
     <t>CAPEX_condition_based_maintenance [Euro]</t>
+  </si>
+  <si>
+    <t>Export cable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -376,6 +391,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -411,6 +443,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -586,24 +635,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" customWidth="1"/>
-    <col min="2" max="13" width="20.1796875" customWidth="1"/>
-    <col min="14" max="14" width="18.26953125" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="13" width="20.140625" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -644,7 +693,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -682,7 +731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -690,10 +739,10 @@
         <v>50</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E3" s="10">
         <f>1/15</f>
@@ -720,7 +769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -731,7 +780,7 @@
         <v>51</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E4" s="10">
         <f>1/15</f>
@@ -758,7 +807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -781,7 +830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -791,18 +840,18 @@
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.7265625" customWidth="1"/>
-    <col min="3" max="3" width="19.7265625" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="12" width="14.54296875" customWidth="1"/>
-    <col min="13" max="13" width="16.1796875" customWidth="1"/>
-    <col min="14" max="14" width="14.54296875" customWidth="1"/>
+    <col min="6" max="12" width="14.5703125" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -843,7 +892,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -884,7 +933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -925,7 +974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -967,13 +1016,13 @@
       </c>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M7" s="4"/>
     </row>
   </sheetData>
@@ -984,25 +1033,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S2" sqref="S2:S4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.54296875" customWidth="1"/>
-    <col min="2" max="2" width="21.453125" customWidth="1"/>
-    <col min="3" max="22" width="11.54296875" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="22" width="11.5703125" customWidth="1"/>
     <col min="23" max="23" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1070,7 +1119,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1138,7 +1187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -1206,7 +1255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -1284,27 +1333,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.81640625" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="7.26953125" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="6.54296875" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1363,7 +1412,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
     </row>
   </sheetData>
